--- a/settings_barkov.xlsx
+++ b/settings_barkov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\project\barkov\barkov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Любовь\Desktop\auto_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53A16D6-6749-499F-814D-EAF18C1B75AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F4456-B872-44DA-87DE-070F1451CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="1095" windowWidth="21585" windowHeight="10740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Категория</t>
   </si>
@@ -33,13 +33,76 @@
     <t>Запрос</t>
   </si>
   <si>
-    <t>электрическая зубная щетка</t>
-  </si>
-  <si>
-    <t>звуковая зубная щетка</t>
-  </si>
-  <si>
-    <t>щетка для брекетов</t>
+    <t>Прорезыватель</t>
+  </si>
+  <si>
+    <t>прорезыватель для зубов</t>
+  </si>
+  <si>
+    <t>прорезыватель силиконовый</t>
+  </si>
+  <si>
+    <t>прорезывание зубов</t>
+  </si>
+  <si>
+    <t>Грызунок для новорожденных</t>
+  </si>
+  <si>
+    <t>грызунок для прорезывания</t>
+  </si>
+  <si>
+    <t>первый прикорм</t>
+  </si>
+  <si>
+    <t>Силиконовая ложка для кормления</t>
+  </si>
+  <si>
+    <t>ложка для прикорма</t>
+  </si>
+  <si>
+    <t>силиконовая ложка для прикорма</t>
+  </si>
+  <si>
+    <t>начало прикорма</t>
+  </si>
+  <si>
+    <t>набор посуды для кормления малышей</t>
+  </si>
+  <si>
+    <t>ложка для кормления</t>
+  </si>
+  <si>
+    <t>Ложка</t>
+  </si>
+  <si>
+    <t>ложечка для кормления ребенка</t>
+  </si>
+  <si>
+    <t>столовые приборы детские</t>
+  </si>
+  <si>
+    <t>Ложка детская</t>
+  </si>
+  <si>
+    <t>Детская тарелка</t>
+  </si>
+  <si>
+    <t>тарелка для малыша</t>
+  </si>
+  <si>
+    <t>тарелка детская секционная</t>
+  </si>
+  <si>
+    <t>тарелка для прикорма</t>
+  </si>
+  <si>
+    <t>кормление малыша</t>
+  </si>
+  <si>
+    <t>тарелка для кормления</t>
+  </si>
+  <si>
+    <t>Тарелки детские</t>
   </si>
 </sst>
 </file>
@@ -411,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,20 +494,196 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
